--- a/Flight Payload/Perovskite Performance/P2_Assembled/X016_InSatellite/1Dec2023.xlsx
+++ b/Flight Payload/Perovskite Performance/P2_Assembled/X016_InSatellite/1Dec2023.xlsx
@@ -504,7 +504,7 @@
         <v>30.53202349229077</v>
       </c>
       <c r="E2" t="n">
-        <v>1918.967609846839</v>
+        <v>19.18967609846839</v>
       </c>
       <c r="F2" t="n">
         <v>1.770857362552865</v>
@@ -548,7 +548,7 @@
         <v>30.53202349229077</v>
       </c>
       <c r="E3" t="n">
-        <v>1888.016519365439</v>
+        <v>18.88016519365439</v>
       </c>
       <c r="F3" t="n">
         <v>1.770857362552865</v>
@@ -592,7 +592,7 @@
         <v>30.53202349229077</v>
       </c>
       <c r="E4" t="n">
-        <v>1764.212157439836</v>
+        <v>17.64212157439836</v>
       </c>
       <c r="F4" t="n">
         <v>1.770857362552865</v>
@@ -636,7 +636,7 @@
         <v>30.53202349229077</v>
       </c>
       <c r="E5" t="n">
-        <v>1975.242319813022</v>
+        <v>19.75242319813022</v>
       </c>
       <c r="F5" t="n">
         <v>1.770857362552865</v>
@@ -768,7 +768,7 @@
         <v>28.35116467141285</v>
       </c>
       <c r="E8" t="n">
-        <v>1722.006124965199</v>
+        <v>17.22006124965199</v>
       </c>
       <c r="F8" t="n">
         <v>1.644367550941945</v>
@@ -812,7 +812,7 @@
         <v>30.53202349229077</v>
       </c>
       <c r="E9" t="n">
-        <v>1755.770950944909</v>
+        <v>17.55770950944909</v>
       </c>
       <c r="F9" t="n">
         <v>1.770857362552865</v>
@@ -944,7 +944,7 @@
         <v>30.53202349229077</v>
       </c>
       <c r="E12" t="n">
-        <v>1857.065428884038</v>
+        <v>18.57065428884038</v>
       </c>
       <c r="F12" t="n">
         <v>1.770857362552865</v>
@@ -988,7 +988,7 @@
         <v>28.35116467141285</v>
       </c>
       <c r="E13" t="n">
-        <v>1857.065428884038</v>
+        <v>18.57065428884038</v>
       </c>
       <c r="F13" t="n">
         <v>1.644367550941945</v>
